--- a/results/Table1.xlsx
+++ b/results/Table1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aokutse/Desktop/malnutrition/results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FD5224AA-B29A-D943-A7AA-E6544037BAB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{307247AB-9B97-7B4A-9E03-E0FEF8B6932E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" xr2:uid="{1E6E80F9-7A74-3445-9E2F-6A7465AF2938}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{1E6E80F9-7A74-3445-9E2F-6A7465AF2938}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="290">
   <si>
     <t>Variable</t>
   </si>
@@ -107,9 +107,6 @@
     <t>Other</t>
   </si>
   <si>
-    <t>Socio-economic status</t>
-  </si>
-  <si>
     <t>Poorest</t>
   </si>
   <si>
@@ -134,31 +131,28 @@
     <t>&gt;= Secondary</t>
   </si>
   <si>
+    <t>Mother's age</t>
+  </si>
+  <si>
     <t>&lt;= 24</t>
   </si>
   <si>
     <t>25 - 34</t>
   </si>
   <si>
-    <t>Mother's age (years)</t>
-  </si>
-  <si>
     <t>&gt;= 35</t>
   </si>
   <si>
     <t>Maternal education</t>
   </si>
   <si>
-    <t>Maternal work status</t>
-  </si>
-  <si>
     <t>Unemployed</t>
   </si>
   <si>
     <t>Employed</t>
   </si>
   <si>
-    <t>Child's delivery place</t>
+    <t>Delivery place</t>
   </si>
   <si>
     <t>Home</t>
@@ -182,12 +176,6 @@
     <t>50 (1.1)</t>
   </si>
   <si>
-    <t>Child's age in months, mean (SE)</t>
-  </si>
-  <si>
-    <t>Preceeding birth interval in months, mean (SE)</t>
-  </si>
-  <si>
     <t>Birth order number, mean (SE)</t>
   </si>
   <si>
@@ -479,9 +467,6 @@
     <t>39.8 (1.2)</t>
   </si>
   <si>
-    <t>2665 (17.4)</t>
-  </si>
-  <si>
     <t>1523 (57.2)</t>
   </si>
   <si>
@@ -566,24 +551,15 @@
     <t>14 (0.8)</t>
   </si>
   <si>
-    <t>Region of residence</t>
-  </si>
-  <si>
     <t>Coast</t>
   </si>
   <si>
-    <t>North eastern</t>
-  </si>
-  <si>
     <t>Eastern</t>
   </si>
   <si>
     <t>Central</t>
   </si>
   <si>
-    <t>Rift Valley</t>
-  </si>
-  <si>
     <t>Western</t>
   </si>
   <si>
@@ -909,6 +885,27 @@
   </si>
   <si>
     <t>289 (41.3)</t>
+  </si>
+  <si>
+    <t>2665 (17.5)</t>
+  </si>
+  <si>
+    <t>Economic status</t>
+  </si>
+  <si>
+    <t>Child's age months, mean (SE)</t>
+  </si>
+  <si>
+    <t>Birth interval,months, mean (SE)</t>
+  </si>
+  <si>
+    <t>N. eastern</t>
+  </si>
+  <si>
+    <t>R. Valley</t>
+  </si>
+  <si>
+    <t>Mother employed</t>
   </si>
 </sst>
 </file>
@@ -1284,7 +1281,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="I53" sqref="I53"/>
+      <selection pane="topRight" activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1332,11 +1329,11 @@
       </c>
       <c r="D2" s="5"/>
       <c r="E2" s="3" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F2" s="3"/>
       <c r="H2" s="3" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
@@ -1346,11 +1343,11 @@
       </c>
       <c r="M2" s="5"/>
       <c r="N2" s="3" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="O2" s="3"/>
       <c r="Q2" s="3" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="R2" s="3"/>
       <c r="S2" s="3"/>
@@ -1360,10 +1357,10 @@
         <v>5</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>5</v>
@@ -1390,7 +1387,7 @@
         <v>2</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="N3" s="2" t="s">
         <v>5</v>
@@ -1425,136 +1422,136 @@
         <v>17291</v>
       </c>
       <c r="F4" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="H4">
         <v>17291</v>
       </c>
       <c r="I4" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="K4">
         <v>15336</v>
       </c>
       <c r="L4" t="s">
-        <v>147</v>
+        <v>283</v>
       </c>
       <c r="N4">
         <v>15368</v>
       </c>
       <c r="O4" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="Q4">
         <v>15329</v>
       </c>
       <c r="R4" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>48</v>
+        <v>285</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D5" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F5" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="G5" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="I5" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="J5" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="L5" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="M5">
         <v>0.08</v>
       </c>
       <c r="O5" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="P5" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="C6" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="C6" s="6" t="s">
-        <v>53</v>
-      </c>
       <c r="D6" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F6" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="G6" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="I6" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="J6" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="L6" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="M6" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="O6" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="P6" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D7" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F7" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="G7" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="I7" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="J7" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="L7" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="M7" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="O7" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="P7" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -1564,16 +1561,16 @@
       <c r="B8" s="4"/>
       <c r="C8" s="6"/>
       <c r="D8" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="J8" s="2">
         <v>8.7999999999999995E-2</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="S8" s="2">
         <v>8.9999999999999993E-3</v>
@@ -1593,31 +1590,31 @@
         <v>8763</v>
       </c>
       <c r="F9" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="H9">
         <v>8763</v>
       </c>
       <c r="I9" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="K9">
         <v>7755</v>
       </c>
       <c r="L9" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="N9">
         <v>7767</v>
       </c>
       <c r="O9" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="Q9">
         <v>7758</v>
       </c>
       <c r="R9" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.2">
@@ -1634,178 +1631,178 @@
         <v>8528</v>
       </c>
       <c r="F10" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="H10">
         <v>8528</v>
       </c>
       <c r="I10" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="K10">
         <v>7581</v>
       </c>
       <c r="L10" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="N10">
         <v>7601</v>
       </c>
       <c r="O10" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="Q10">
         <v>7571</v>
       </c>
       <c r="R10" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C11" s="6"/>
       <c r="D11" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="G11" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="J11" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="M11" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="P11" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="S11" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B12" s="1">
         <v>6513</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E12">
         <v>6512</v>
       </c>
       <c r="F12" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="H12">
         <v>6512</v>
       </c>
       <c r="I12" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="K12">
         <v>1110</v>
       </c>
       <c r="L12" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="N12">
         <v>1116</v>
       </c>
       <c r="O12" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="Q12">
         <v>1116</v>
       </c>
       <c r="R12" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B13" s="1">
         <v>7919</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E13">
         <v>7919</v>
       </c>
       <c r="F13" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="H13">
         <v>7919</v>
       </c>
       <c r="I13" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="K13">
         <v>6095</v>
       </c>
       <c r="L13" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="N13">
         <v>6114</v>
       </c>
       <c r="O13" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="Q13">
         <v>6094</v>
       </c>
       <c r="R13" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B14" s="1">
         <v>2637</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E14">
         <v>2637</v>
       </c>
       <c r="F14" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="H14">
         <v>2637</v>
       </c>
       <c r="I14" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="K14">
         <v>2217</v>
       </c>
       <c r="L14" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="N14">
         <v>2217</v>
       </c>
       <c r="O14" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="Q14">
         <v>2202</v>
       </c>
       <c r="R14" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.2">
@@ -1816,37 +1813,37 @@
         <v>176</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E15">
         <v>176</v>
       </c>
       <c r="F15" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="H15">
         <v>176</v>
       </c>
       <c r="I15" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="K15">
         <v>50</v>
       </c>
       <c r="L15" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="N15">
         <v>50</v>
       </c>
       <c r="O15" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="Q15">
         <v>49</v>
       </c>
       <c r="R15" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
     </row>
     <row r="16" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -1856,19 +1853,19 @@
       <c r="B16" s="4"/>
       <c r="C16" s="6"/>
       <c r="D16" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="J16" s="2">
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="P16" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="S16" s="2">
         <v>7.0000000000000001E-3</v>
@@ -1888,31 +1885,31 @@
         <v>5926</v>
       </c>
       <c r="F17" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="H17">
         <v>5926</v>
       </c>
       <c r="I17" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="K17">
         <v>5411</v>
       </c>
       <c r="L17" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="N17">
         <v>5424</v>
       </c>
       <c r="O17" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="Q17">
         <v>5410</v>
       </c>
       <c r="R17" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.2">
@@ -1929,31 +1926,31 @@
         <v>11364</v>
       </c>
       <c r="F18" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="H18">
         <v>11364</v>
       </c>
       <c r="I18" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="K18">
         <v>9924</v>
       </c>
       <c r="L18" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="N18">
         <v>9944</v>
       </c>
       <c r="O18" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="Q18">
         <v>9918</v>
       </c>
       <c r="R18" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
     </row>
     <row r="19" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -1963,13 +1960,13 @@
       <c r="B19" s="4"/>
       <c r="C19" s="6"/>
       <c r="D19" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="M19" s="2">
         <v>1.0999999999999999E-2</v>
@@ -1978,7 +1975,7 @@
         <v>2.7E-2</v>
       </c>
       <c r="S19" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.2">
@@ -1989,37 +1986,37 @@
         <v>3097</v>
       </c>
       <c r="C20" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E20">
         <v>3097</v>
       </c>
       <c r="F20" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="H20">
         <v>3097</v>
       </c>
       <c r="I20" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="K20">
         <v>2670</v>
       </c>
       <c r="L20" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="N20">
         <v>2676</v>
       </c>
       <c r="O20" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="Q20">
         <v>2667</v>
       </c>
       <c r="R20" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.2">
@@ -2030,37 +2027,37 @@
         <v>12228</v>
       </c>
       <c r="C21" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E21">
         <v>12228</v>
       </c>
       <c r="F21" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="H21">
         <v>12228</v>
       </c>
       <c r="I21" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="K21">
         <v>10527</v>
       </c>
       <c r="L21" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="N21">
         <v>10541</v>
       </c>
       <c r="O21" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="Q21">
         <v>10513</v>
       </c>
       <c r="R21" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.2">
@@ -2071,37 +2068,37 @@
         <v>1440</v>
       </c>
       <c r="C22" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E22">
         <v>1440</v>
       </c>
       <c r="F22" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="H22">
         <v>1440</v>
       </c>
       <c r="I22" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="K22">
         <v>1485</v>
       </c>
       <c r="L22" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="N22">
         <v>1489</v>
       </c>
       <c r="O22" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="Q22">
         <v>1494</v>
       </c>
       <c r="R22" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.2">
@@ -2112,37 +2109,37 @@
         <v>457</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="E23">
         <v>457</v>
       </c>
       <c r="F23" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="H23">
         <v>457</v>
       </c>
       <c r="I23" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="K23">
         <v>213</v>
       </c>
       <c r="L23" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="N23">
         <v>217</v>
       </c>
       <c r="O23" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="Q23">
         <v>213</v>
       </c>
       <c r="R23" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.2">
@@ -2153,418 +2150,418 @@
         <v>42</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="E24">
         <v>42</v>
       </c>
       <c r="F24" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="H24">
         <v>42</v>
       </c>
       <c r="I24" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="K24">
         <v>439</v>
       </c>
       <c r="L24" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="N24">
         <v>442</v>
       </c>
       <c r="O24" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="Q24">
         <v>440</v>
       </c>
       <c r="R24" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>23</v>
+        <v>284</v>
       </c>
       <c r="C25" s="6"/>
       <c r="D25" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="G25" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="J25" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="M25" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="P25" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="S25" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B26" s="1">
         <v>4178</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E26">
         <v>4178</v>
       </c>
       <c r="F26" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="H26">
         <v>4178</v>
       </c>
       <c r="I26" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="K26">
         <v>3583</v>
       </c>
       <c r="L26" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="N26">
         <v>3596</v>
       </c>
       <c r="O26" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="Q26">
         <v>3583</v>
       </c>
       <c r="R26" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B27" s="1">
         <v>3631</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E27">
         <v>3631</v>
       </c>
       <c r="F27" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="H27">
         <v>3631</v>
       </c>
       <c r="I27" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="K27">
         <v>2840</v>
       </c>
       <c r="L27" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="N27">
         <v>2846</v>
       </c>
       <c r="O27" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="Q27">
         <v>2849</v>
       </c>
       <c r="R27" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B28" s="1">
         <v>3182</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="E28">
         <v>3182</v>
       </c>
       <c r="F28" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="H28">
         <v>3182</v>
       </c>
       <c r="I28" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="K28">
         <v>2703</v>
       </c>
       <c r="L28" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="N28">
         <v>2707</v>
       </c>
       <c r="O28" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="Q28">
         <v>2701</v>
       </c>
       <c r="R28" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B29" s="1">
         <v>2969</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="E29">
         <v>2969</v>
       </c>
       <c r="F29" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="H29">
         <v>2969</v>
       </c>
       <c r="I29" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="K29">
         <v>3052</v>
       </c>
       <c r="L29" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="N29">
         <v>3062</v>
       </c>
       <c r="O29" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="Q29">
         <v>3040</v>
       </c>
       <c r="R29" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B30" s="1">
         <v>3330</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E30">
         <v>3330</v>
       </c>
       <c r="F30" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="H30">
         <v>3330</v>
       </c>
       <c r="I30" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="K30">
         <v>3155</v>
       </c>
       <c r="L30" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="N30">
         <v>3154</v>
       </c>
       <c r="O30" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="Q30">
         <v>3154</v>
       </c>
       <c r="R30" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C31" s="6"/>
       <c r="D31" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="G31" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="J31" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="M31" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="P31" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="S31" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B32" s="1">
         <v>2057</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="E32">
         <v>2057</v>
       </c>
       <c r="F32" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="H32">
         <v>2057</v>
       </c>
       <c r="I32" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="K32">
         <v>1606</v>
       </c>
       <c r="L32" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="N32">
         <v>1614</v>
       </c>
       <c r="O32" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="Q32">
         <v>1611</v>
       </c>
       <c r="R32" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B33" s="1">
         <v>9735</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E33">
         <v>9735</v>
       </c>
       <c r="F33" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="H33">
         <v>9735</v>
       </c>
       <c r="I33" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="K33">
         <v>5820</v>
       </c>
       <c r="L33" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="N33">
         <v>5834</v>
       </c>
       <c r="O33" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="Q33">
         <v>5829</v>
       </c>
       <c r="R33" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B34" s="1">
         <v>5497</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="E34">
         <v>5497</v>
       </c>
       <c r="F34" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="H34">
         <v>5497</v>
       </c>
       <c r="I34" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="K34">
         <v>7909</v>
       </c>
       <c r="L34" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="N34">
         <v>7919</v>
       </c>
       <c r="O34" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="Q34">
         <v>7888</v>
       </c>
       <c r="R34" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C35" s="6"/>
       <c r="D35">
@@ -2577,7 +2574,7 @@
         <v>0.34699999999999998</v>
       </c>
       <c r="M35" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="P35">
         <v>0.54100000000000004</v>
@@ -2594,37 +2591,37 @@
         <v>5000</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E36">
         <v>5000</v>
       </c>
       <c r="F36" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="H36">
         <v>5000</v>
       </c>
       <c r="I36" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="K36">
         <v>4084</v>
       </c>
       <c r="L36" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="N36">
         <v>4094</v>
       </c>
       <c r="O36" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="Q36">
         <v>4083</v>
       </c>
       <c r="R36" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.2">
@@ -2635,83 +2632,83 @@
         <v>8855</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E37">
         <v>8855</v>
       </c>
       <c r="F37" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="H37">
         <v>8855</v>
       </c>
       <c r="I37" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="K37">
         <v>7852</v>
       </c>
       <c r="L37" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="N37">
         <v>7874</v>
       </c>
       <c r="O37" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="Q37">
         <v>7855</v>
       </c>
       <c r="R37" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B38" s="1">
         <v>3435</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E38">
         <v>3435</v>
       </c>
       <c r="F38" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="H38">
         <v>3435</v>
       </c>
       <c r="I38" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="K38">
         <v>3400</v>
       </c>
       <c r="L38" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="N38">
         <v>3400</v>
       </c>
       <c r="O38" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="Q38">
         <v>3390</v>
       </c>
       <c r="R38" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>37</v>
+        <v>289</v>
       </c>
       <c r="D39">
         <v>0.54400000000000004</v>
@@ -2720,592 +2717,592 @@
         <v>0.32400000000000001</v>
       </c>
       <c r="J39" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="M39">
         <v>0.19900000000000001</v>
       </c>
       <c r="P39" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="S39" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B40" s="1">
         <v>3041</v>
       </c>
       <c r="C40" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E40">
         <v>3041</v>
       </c>
       <c r="F40" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="H40">
         <v>3041</v>
       </c>
       <c r="I40" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="K40">
         <v>7596</v>
       </c>
       <c r="L40" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="N40">
         <v>7625</v>
       </c>
       <c r="O40" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="Q40">
         <v>7602</v>
       </c>
       <c r="R40" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B41" s="1">
         <v>5263</v>
       </c>
       <c r="C41" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E41">
         <v>5263</v>
       </c>
       <c r="F41" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="H41">
         <v>5263</v>
       </c>
       <c r="I41" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="K41">
         <v>7739</v>
       </c>
       <c r="L41" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="N41">
         <v>7742</v>
       </c>
       <c r="O41" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="Q41">
         <v>7726</v>
       </c>
       <c r="R41" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D42" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="G42" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="J42" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="M42" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="P42" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="S42" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B43" s="1">
         <v>727</v>
       </c>
       <c r="C43" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E43">
         <v>727</v>
       </c>
       <c r="F43" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="H43">
         <v>727</v>
       </c>
       <c r="I43" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="K43">
         <v>1257</v>
       </c>
       <c r="L43" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="N43">
         <v>1263</v>
       </c>
       <c r="O43" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="Q43">
         <v>1260</v>
       </c>
       <c r="R43" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
     </row>
     <row r="44" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B44" s="1">
         <v>3964</v>
       </c>
       <c r="C44" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="E44">
         <v>3964</v>
       </c>
       <c r="F44" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="H44">
         <v>3964</v>
       </c>
       <c r="I44" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="K44">
         <v>4637</v>
       </c>
       <c r="L44" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="N44">
         <v>4651</v>
       </c>
       <c r="O44" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="Q44">
         <v>4647</v>
       </c>
       <c r="R44" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
     </row>
     <row r="45" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B45" s="1">
         <v>3019</v>
       </c>
       <c r="C45" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="E45">
         <v>3019</v>
       </c>
       <c r="F45" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="H45">
         <v>3019</v>
       </c>
       <c r="I45" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="K45">
         <v>6629</v>
       </c>
       <c r="L45" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="N45">
         <v>6638</v>
       </c>
       <c r="O45" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="Q45">
         <v>6615</v>
       </c>
       <c r="R45" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
     </row>
     <row r="46" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
-        <v>176</v>
+        <v>9</v>
       </c>
       <c r="D46" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="G46" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="M46" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="P46" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="S46" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="47" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="B47" s="1">
         <v>1774</v>
       </c>
       <c r="C47" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="E47">
         <v>1774</v>
       </c>
       <c r="F47" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="H47">
         <v>1774</v>
       </c>
       <c r="I47" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="K47">
         <v>1441</v>
       </c>
       <c r="L47" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="N47">
         <v>1441</v>
       </c>
       <c r="O47" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="Q47">
         <v>1430</v>
       </c>
       <c r="R47" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
     </row>
     <row r="48" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>178</v>
+        <v>287</v>
       </c>
       <c r="B48" s="1">
         <v>557</v>
       </c>
       <c r="C48" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="E48">
         <v>557</v>
       </c>
       <c r="F48" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="H48">
         <v>557</v>
       </c>
       <c r="I48" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="K48">
         <v>562</v>
       </c>
       <c r="L48" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="N48">
         <v>562</v>
       </c>
       <c r="O48" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="Q48">
         <v>562</v>
       </c>
       <c r="R48" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="B49" s="1">
         <v>2147</v>
       </c>
       <c r="C49" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="E49">
         <v>2147</v>
       </c>
       <c r="F49" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="H49">
         <v>2147</v>
       </c>
       <c r="I49" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="K49">
         <v>1857</v>
       </c>
       <c r="L49" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="N49">
         <v>1857</v>
       </c>
       <c r="O49" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="Q49">
         <v>1850</v>
       </c>
       <c r="R49" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="B50" s="1">
         <v>1605</v>
       </c>
       <c r="C50" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="E50">
         <v>1605</v>
       </c>
       <c r="F50" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="H50">
         <v>1605</v>
       </c>
       <c r="I50" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="K50">
         <v>1737</v>
       </c>
       <c r="L50" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="N50">
         <v>1737</v>
       </c>
       <c r="O50" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="Q50">
         <v>1730</v>
       </c>
       <c r="R50" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
     </row>
     <row r="51" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>181</v>
+        <v>288</v>
       </c>
       <c r="B51" s="1">
         <v>5047</v>
       </c>
       <c r="C51" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="E51">
         <v>5047</v>
       </c>
       <c r="F51" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="H51">
         <v>5047</v>
       </c>
       <c r="I51" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="K51">
         <v>4768</v>
       </c>
       <c r="L51" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="N51">
         <v>4768</v>
       </c>
       <c r="O51" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="Q51">
         <v>4763</v>
       </c>
       <c r="R51" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
     </row>
     <row r="52" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="B52" s="1">
         <v>2031</v>
       </c>
       <c r="C52" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="E52">
         <v>2031</v>
       </c>
       <c r="F52" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="H52">
         <v>2031</v>
       </c>
       <c r="I52" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="K52">
         <v>1514</v>
       </c>
       <c r="L52" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="N52">
         <v>1514</v>
       </c>
       <c r="O52" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="Q52">
         <v>1508</v>
       </c>
       <c r="R52" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
     </row>
     <row r="53" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="B53" s="1">
         <v>2448</v>
       </c>
       <c r="C53" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="E53">
         <v>2448</v>
       </c>
       <c r="F53" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="H53">
         <v>2448</v>
       </c>
       <c r="I53" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="K53">
         <v>1877</v>
       </c>
       <c r="L53" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="N53">
         <v>1877</v>
       </c>
       <c r="O53" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="Q53">
         <v>1874</v>
       </c>
       <c r="R53" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
     </row>
     <row r="54" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="B54" s="1">
         <v>1678</v>
       </c>
       <c r="C54" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="E54">
         <v>1678</v>
       </c>
       <c r="F54" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="H54">
         <v>1678</v>
       </c>
       <c r="I54" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="K54">
         <v>1610</v>
       </c>
       <c r="L54" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="N54">
         <v>1610</v>
       </c>
       <c r="O54" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="Q54">
         <v>1609</v>
       </c>
       <c r="R54" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
     </row>
   </sheetData>
